--- a/biology/Zoologie/Cremastus/Cremastus.xlsx
+++ b/biology/Zoologie/Cremastus/Cremastus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zaleptopygus
 Cremastus est un genre d'insectes Hyménoptères de la sous-famille des Ophioninae (famille des Ichneumonidae).
@@ -512,9 +524,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cremastus a été décrit et publié en 1829 par le zoologiste allemand Johann Ludwig Christian Carl Gravenhorst (1777–1857). Il a un synonyme, Zaleptopygus, créé en 1911 par l'entomologiste américain Henry Lorenz Viereck (d) (1881-1931)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cremastus a été décrit et publié en 1829 par le zoologiste allemand Johann Ludwig Christian Carl Gravenhorst (1777–1857). Il a un synonyme, Zaleptopygus, créé en 1911 par l'entomologiste américain Henry Lorenz Viereck (d) (1881-1931).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C. abruptus Dasch, 1979
@@ -704,7 +720,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 J. L. C. Gravenhorst. 1829. Ichneumonologia Europaea, Pars III, Continens Pimplas, Metopios, Bassos, Banchos, Ophiones, Hellwigias, Acaenitas, Xoridas, et Supplementa, p. 1-1097 (lire en ligne).</t>
